--- a/PJ管理/01.成果物/04.T_テスト／移行/テスト仕様書兼報告書_DMS40301_図面登録依頼詳細画面.xlsx
+++ b/PJ管理/01.成果物/04.T_テスト／移行/テスト仕様書兼報告書_DMS40301_図面登録依頼詳細画面.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20403"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\Projects\03.JTEKT\00.プロジェクト別\09.2024年度DRASAPサーバ更新2024\30.設計ドキュメント\T_テスト／移行\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\DRASAP_Web\PJ管理\01.成果物\04.T_テスト／移行\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2878590-A5F2-444D-B818-AEDCD02CE155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3911105D-4D26-44C8-8319-4E3D0C72B49D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" tabRatio="368" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="33120" windowHeight="18120" tabRatio="368" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="図面登録依頼詳細画面" sheetId="4" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="83">
   <si>
     <t>作成者</t>
     <rPh sb="0" eb="3">
@@ -953,6 +953,29 @@
     </rPh>
     <rPh sb="8" eb="10">
       <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NG</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>N/A</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NG⇒OK</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>合計</t>
+    <rPh sb="0" eb="2">
+      <t>ゴウケイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1168,7 +1191,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -1236,6 +1259,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1278,7 +1304,10 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1570,42 +1599,49 @@
   <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35:I35"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15.45" x14ac:dyDescent="0.65"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="2" customWidth="1"/>
-    <col min="2" max="3" width="31.2109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29.0703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="37.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="43.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="44.7109375" style="1" customWidth="1"/>
-    <col min="8" max="9" width="46.85546875" style="1" customWidth="1"/>
-    <col min="10" max="12" width="46.85546875" style="1" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="84.85546875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9.2109375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.7109375" style="2" customWidth="1"/>
-    <col min="17" max="17" width="45.78515625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="1" width="6.125" style="2" customWidth="1"/>
+    <col min="2" max="3" width="31.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="37.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="43.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="44.75" style="1" customWidth="1"/>
+    <col min="8" max="9" width="46.875" style="1" customWidth="1"/>
+    <col min="10" max="12" width="46.875" style="1" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="84.875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.25" style="2" customWidth="1"/>
+    <col min="15" max="15" width="12.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.75" style="2" customWidth="1"/>
+    <col min="17" max="17" width="45.75" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="23.6" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="28"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="29"/>
       <c r="F1" s="18"/>
-    </row>
-    <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A2" s="29" t="s">
+      <c r="N1" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="O1" s="2">
+        <f>COUNTIF(N$7:N$1000,N1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="30"/>
+      <c r="B2" s="31"/>
       <c r="C2" s="17" t="s">
         <v>76</v>
       </c>
@@ -1615,44 +1651,72 @@
       <c r="E2" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A3" s="31" t="s">
+      <c r="N2" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="O2" s="2">
+        <f t="shared" ref="O2:O4" si="0">COUNTIF(N$7:N$1000,N2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="32"/>
+      <c r="B3" s="33"/>
       <c r="C3" s="5" t="s">
         <v>77</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="37">
+      <c r="E3" s="23">
         <v>45553</v>
       </c>
       <c r="F3" s="19"/>
-    </row>
-    <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A4" s="26" t="s">
+      <c r="N3" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="O3" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="28"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="29"/>
       <c r="F4" s="18"/>
-    </row>
-    <row r="5" spans="1:17" ht="67.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A5" s="33" t="s">
+      <c r="N4" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="O4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="67.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="36"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="37"/>
       <c r="F5" s="20"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.65">
+      <c r="N5" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="O5" s="39" t="str">
+        <f>"未実施："&amp;COUNTA(M$7:M$1000)-SUM(O1:O4)&amp;"／実施済："&amp;SUM(O1:O4)</f>
+        <v>未実施：29／実施済：0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6" s="22" t="s">
         <v>75</v>
       </c>
@@ -1662,14 +1726,14 @@
       <c r="C6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="26"/>
       <c r="J6" s="16"/>
       <c r="K6" s="16"/>
       <c r="L6" s="16"/>
@@ -1689,7 +1753,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A7" s="9">
         <v>1</v>
       </c>
@@ -1718,7 +1782,7 @@
       <c r="P7" s="13"/>
       <c r="Q7" s="15"/>
     </row>
-    <row r="8" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="8" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A8" s="9">
         <v>2</v>
       </c>
@@ -1747,7 +1811,7 @@
       <c r="P8" s="13"/>
       <c r="Q8" s="15"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9" s="9">
         <v>3</v>
       </c>
@@ -1772,7 +1836,7 @@
       <c r="P9" s="13"/>
       <c r="Q9" s="15"/>
     </row>
-    <row r="10" spans="1:17" ht="61.75" x14ac:dyDescent="0.65">
+    <row r="10" spans="1:17" ht="63" x14ac:dyDescent="0.4">
       <c r="A10" s="9">
         <v>4</v>
       </c>
@@ -1797,7 +1861,7 @@
       <c r="P10" s="13"/>
       <c r="Q10" s="15"/>
     </row>
-    <row r="11" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="11" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A11" s="9">
         <v>5</v>
       </c>
@@ -1822,7 +1886,7 @@
       <c r="P11" s="13"/>
       <c r="Q11" s="15"/>
     </row>
-    <row r="12" spans="1:17" ht="46.3" x14ac:dyDescent="0.65">
+    <row r="12" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A12" s="9">
         <v>6</v>
       </c>
@@ -1847,7 +1911,7 @@
       <c r="P12" s="13"/>
       <c r="Q12" s="15"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A13" s="9">
         <v>7</v>
       </c>
@@ -1872,7 +1936,7 @@
       <c r="P13" s="13"/>
       <c r="Q13" s="15"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A14" s="9">
         <v>8</v>
       </c>
@@ -1899,7 +1963,7 @@
       <c r="P14" s="13"/>
       <c r="Q14" s="15"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15" s="9">
         <v>9</v>
       </c>
@@ -1926,7 +1990,7 @@
       <c r="P15" s="13"/>
       <c r="Q15" s="15"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16" s="9">
         <v>10</v>
       </c>
@@ -1951,7 +2015,7 @@
       <c r="P16" s="13"/>
       <c r="Q16" s="15"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A17" s="9">
         <v>11</v>
       </c>
@@ -1976,7 +2040,7 @@
       <c r="P17" s="13"/>
       <c r="Q17" s="15"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A18" s="9">
         <v>12</v>
       </c>
@@ -2003,7 +2067,7 @@
       <c r="P18" s="13"/>
       <c r="Q18" s="15"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A19" s="9">
         <v>13</v>
       </c>
@@ -2028,7 +2092,7 @@
       <c r="P19" s="13"/>
       <c r="Q19" s="15"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A20" s="9">
         <v>14</v>
       </c>
@@ -2053,7 +2117,7 @@
       <c r="P20" s="13"/>
       <c r="Q20" s="15"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A21" s="9">
         <v>15</v>
       </c>
@@ -2078,7 +2142,7 @@
       <c r="P21" s="13"/>
       <c r="Q21" s="15"/>
     </row>
-    <row r="22" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="22" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A22" s="9">
         <v>16</v>
       </c>
@@ -2105,7 +2169,7 @@
       <c r="P22" s="13"/>
       <c r="Q22" s="15"/>
     </row>
-    <row r="23" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="23" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A23" s="9">
         <v>17</v>
       </c>
@@ -2130,7 +2194,7 @@
       <c r="P23" s="13"/>
       <c r="Q23" s="15"/>
     </row>
-    <row r="24" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="24" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A24" s="9">
         <v>18</v>
       </c>
@@ -2155,7 +2219,7 @@
       <c r="P24" s="13"/>
       <c r="Q24" s="15"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A25" s="9">
         <v>19</v>
       </c>
@@ -2180,7 +2244,7 @@
       <c r="P25" s="13"/>
       <c r="Q25" s="15"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A26" s="9">
         <v>20</v>
       </c>
@@ -2205,7 +2269,7 @@
       <c r="P26" s="13"/>
       <c r="Q26" s="15"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A27" s="9">
         <v>21</v>
       </c>
@@ -2234,7 +2298,7 @@
       <c r="P27" s="13"/>
       <c r="Q27" s="15"/>
     </row>
-    <row r="28" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="28" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A28" s="9">
         <v>22</v>
       </c>
@@ -2265,7 +2329,7 @@
       <c r="P28" s="13"/>
       <c r="Q28" s="15"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A29" s="9">
         <v>23</v>
       </c>
@@ -2292,7 +2356,7 @@
       <c r="P29" s="13"/>
       <c r="Q29" s="15"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A30" s="9">
         <v>24</v>
       </c>
@@ -2317,7 +2381,7 @@
       <c r="P30" s="13"/>
       <c r="Q30" s="15"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A31" s="9">
         <v>25</v>
       </c>
@@ -2342,7 +2406,7 @@
       <c r="P31" s="13"/>
       <c r="Q31" s="15"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A32" s="9">
         <v>26</v>
       </c>
@@ -2367,7 +2431,7 @@
       <c r="P32" s="13"/>
       <c r="Q32" s="15"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A33" s="9">
         <v>27</v>
       </c>
@@ -2392,7 +2456,7 @@
       <c r="P33" s="13"/>
       <c r="Q33" s="15"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A34" s="9">
         <v>28</v>
       </c>
@@ -2417,7 +2481,7 @@
       <c r="P34" s="13"/>
       <c r="Q34" s="15"/>
     </row>
-    <row r="35" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="35" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A35" s="9">
         <v>29</v>
       </c>
@@ -2460,6 +2524,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100B932A2821493BB4AB71A0C79347FD678" ma:contentTypeVersion="13" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="528594b33024f52b27c0b5dcdc9dfa0b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d" xmlns:ns3="e8618445-b921-4c48-afdf-14e883213c59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="25e4712d85e376121aa3366c94b400a9" ns2:_="" ns3:_="">
     <xsd:import namespace="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d"/>
@@ -2682,15 +2755,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -2703,13 +2767,39 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{00BA9BEF-9FC1-4455-9BC8-4A219529FD7E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{256F5120-266C-40C0-AA81-FCA7161B4644}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{256F5120-266C-40C0-AA81-FCA7161B4644}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{00BA9BEF-9FC1-4455-9BC8-4A219529FD7E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d"/>
+    <ds:schemaRef ds:uri="e8618445-b921-4c48-afdf-14e883213c59"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B32E28B-C846-49C6-BEC1-CFA8F8DC97F9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B32E28B-C846-49C6-BEC1-CFA8F8DC97F9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e8618445-b921-4c48-afdf-14e883213c59"/>
+    <ds:schemaRef ds:uri="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/PJ管理/01.成果物/04.T_テスト／移行/テスト仕様書兼報告書_DMS40301_図面登録依頼詳細画面.xlsx
+++ b/PJ管理/01.成果物/04.T_テスト／移行/テスト仕様書兼報告書_DMS40301_図面登録依頼詳細画面.xlsx
@@ -1,31 +1,47 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20403"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\DRASAP_Web\PJ管理\01.成果物\04.T_テスト／移行\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3911105D-4D26-44C8-8319-4E3D0C72B49D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A85BA0-7FF5-489C-B556-22864FD4A17E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="33120" windowHeight="18120" tabRatio="368" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="図面登録依頼詳細画面" sheetId="4" r:id="rId1"/>
+    <sheet name="No.1" sheetId="5" r:id="rId2"/>
+    <sheet name="No.2~5" sheetId="6" r:id="rId3"/>
+    <sheet name="No.6~19" sheetId="7" r:id="rId4"/>
+    <sheet name="No.21~28" sheetId="8" r:id="rId5"/>
+    <sheet name="No.29" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="158">
   <si>
     <t>作成者</t>
     <rPh sb="0" eb="3">
@@ -979,12 +995,349 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>OLD</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NEW</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>JOB_ID</t>
+  </si>
+  <si>
+    <t>JOB_NAME</t>
+  </si>
+  <si>
+    <t>ROW_NO</t>
+  </si>
+  <si>
+    <t>REQUEST</t>
+  </si>
+  <si>
+    <t>GOUKI_NO</t>
+  </si>
+  <si>
+    <t>CONTENT</t>
+  </si>
+  <si>
+    <t>START_NO</t>
+  </si>
+  <si>
+    <t>END_NO</t>
+  </si>
+  <si>
+    <t>MESSAGE</t>
+  </si>
+  <si>
+    <t>REQUEST_DATE</t>
+  </si>
+  <si>
+    <t>COPIES</t>
+  </si>
+  <si>
+    <t>STAMP_FLAG</t>
+  </si>
+  <si>
+    <t>SCALE_MODE</t>
+  </si>
+  <si>
+    <t>SCALE_SIZE</t>
+  </si>
+  <si>
+    <t>PRINTER_ID</t>
+  </si>
+  <si>
+    <t>JOB_STAT</t>
+  </si>
+  <si>
+    <t>TRANSIT_STAT</t>
+  </si>
+  <si>
+    <t>JOB_DATE</t>
+  </si>
+  <si>
+    <t>OUTPUT_STAT</t>
+  </si>
+  <si>
+    <t>OUTPUT_DATE</t>
+  </si>
+  <si>
+    <t>USER_ID</t>
+  </si>
+  <si>
+    <t>USER_NAME</t>
+  </si>
+  <si>
+    <t>DEPT_NAME</t>
+  </si>
+  <si>
+    <t>JOB_USER_ID</t>
+  </si>
+  <si>
+    <t>JOB_USER_NAME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A240501-001     </t>
+  </si>
+  <si>
+    <t>図面登録依頼</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>« NULL »</t>
+  </si>
+  <si>
+    <t>01123456780</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>豊田　太郎</t>
+  </si>
+  <si>
+    <t>工作機械･ﾒｶﾄﾛ事業本部BR室業務ﾌﾟﾛｾｽ改革G</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>01123456780?</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1812340120?</t>
+  </si>
+  <si>
+    <t>1812340124?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A190815-005     </t>
+  </si>
+  <si>
+    <t>ET190815010</t>
+  </si>
+  <si>
+    <t>ET190815015</t>
+  </si>
+  <si>
+    <t>規格品です</t>
+  </si>
+  <si>
+    <t>999999</t>
+  </si>
+  <si>
+    <t>テストユーザ</t>
+  </si>
+  <si>
+    <t>CPPS</t>
+  </si>
+  <si>
+    <t>123455</t>
+  </si>
+  <si>
+    <t>髙齋斎齊邊邉</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A240422-001     </t>
+  </si>
+  <si>
+    <t>18539803100</t>
+  </si>
+  <si>
+    <t>123457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A211011-002     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A211011-001     </t>
+  </si>
+  <si>
+    <t>ET211011001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A240722-003     </t>
+  </si>
+  <si>
+    <t>AAAAAAAAA11</t>
+  </si>
+  <si>
+    <t>AAAAAAAAA22</t>
+  </si>
+  <si>
+    <t>文字化けテスト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A240722-004     </t>
+  </si>
+  <si>
+    <t>AAAAAAAAAAA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A240905-001     </t>
+  </si>
+  <si>
+    <t>AB123456002</t>
+  </si>
+  <si>
+    <t>AB123456003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A240905-002     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A240905-004     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A240905-005     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A240905-003     </t>
+  </si>
+  <si>
+    <r>
+      <t>select</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> JOB_REQUEST_TABLE </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>where</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> JOB_NAME </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>'図面登録依頼'</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">A240924-001     </t>
+  </si>
+  <si>
+    <t>馬睿智</t>
+    <rPh sb="0" eb="3">
+      <t>マエイチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ボタンが存在しない</t>
+    <rPh sb="4" eb="6">
+      <t>ソンザイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1034,8 +1387,70 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7F878F"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0080FF"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF2800"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1066,8 +1481,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF87E7AD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1184,14 +1629,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -1216,9 +1677,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1262,6 +1720,16 @@
     <xf numFmtId="14" fontId="3" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1304,15 +1772,49 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="10" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1331,6 +1833,5867 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>542303</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>144258</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A546569C-3245-A087-D3E4-F247A4B3BAB3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19796125" y="10953750"/>
+          <a:ext cx="18290553" cy="9907383"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>542303</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>144258</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBAE8C4B-39AE-EEAB-ACAC-8636C13E90A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19796125" y="714375"/>
+          <a:ext cx="18290553" cy="9907383"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>542303</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>144258</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B8F279D-0691-499F-0558-9AD788337943}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="682625" y="10953750"/>
+          <a:ext cx="18290553" cy="9907383"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>542303</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>144258</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EA7B0EB-6EC3-5574-B074-8ECB234884F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="682625" y="714375"/>
+          <a:ext cx="18290553" cy="9907383"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>539749</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>111125</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAFA57C1-9DBD-45B7-85D1-8A6573EEE338}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16922749" y="1778000"/>
+          <a:ext cx="1619251" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>314324</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>206375</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Speech Bubble: Rectangle 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1C59311-B804-40F4-BE44-1BAF8819633D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12811125" y="12715875"/>
+          <a:ext cx="2520949" cy="349250"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -46411"/>
+            <a:gd name="adj2" fmla="val 155295"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>別ウィンドウでブラウザを起動する</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>539749</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>174625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>111125</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rectangle 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7C40F97-B78B-486B-A9D2-466AE509CB0A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="36036249" y="1841500"/>
+          <a:ext cx="1619251" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>123824</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Speech Bubble: Rectangle 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63AC69D8-61D1-481B-BF14-15A4D05DD282}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="34623375" y="13335000"/>
+          <a:ext cx="2533649" cy="349250"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -46411"/>
+            <a:gd name="adj2" fmla="val 155295"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>別ウィンドウでブラウザを起動する</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Speech Bubble: Rectangle 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{089AFDCA-FC8E-43CA-881D-281DDE55FB90}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16668750" y="2190750"/>
+          <a:ext cx="492125" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 37460"/>
+            <a:gd name="adj2" fmla="val -92324"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>押下</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>396875</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>206375</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Speech Bubble: Rectangle 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8424963-581D-40E0-A1A3-9669AA4CB765}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="35893375" y="2238375"/>
+          <a:ext cx="492125" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 37460"/>
+            <a:gd name="adj2" fmla="val -92324"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>押下</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>542303</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>144258</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{471ED01F-5D40-4C1A-A395-3FF8EEC9F3B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19796125" y="714375"/>
+          <a:ext cx="18290553" cy="9907383"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>542303</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>144258</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26D86E7F-6572-4B85-92A8-DD3D9A11C90B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="682625" y="714375"/>
+          <a:ext cx="18290553" cy="9907383"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>666749</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>31751</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91E0C922-5862-40EA-A2FE-4448E7C63689}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="666749" y="1222376"/>
+          <a:ext cx="11080751" cy="555624"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>25399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>269875</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Speech Bubble: Rectangle 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBF92ED8-18EF-4E69-92C7-6EDD79DB920E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2359025" y="2406649"/>
+          <a:ext cx="4737100" cy="2990851"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -40098"/>
+            <a:gd name="adj2" fmla="val -70722"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>No.2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>タイトルが下記の通り表示されること</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Drawing Search and Print System [</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>図面登録依頼詳細</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>No.3</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>「図面登録依頼詳細」と表示されている</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>No.4</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>セッション情報から取得した以下のログインユーザー情報が表示される</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　職番：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ユーザー</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ID] </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>=USER_MASTER.USER_ID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>）</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　名前：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>氏名（和文）</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>=USER_MASTER.USER_NAME</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>）</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　部署名（店名）：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>部署名</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>]  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>=USER_MASTER.DEPARTMENT</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>）</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>No.5</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ラベルは、依頼</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>、状態、依頼内容、図番の</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>項目</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>メッセージは、存在する場合のみ赤枠で囲ったリンクが表示される</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>158751</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rectangle 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA0204E7-98F8-47AB-B50F-73BD776837D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19796125" y="1222375"/>
+          <a:ext cx="11080751" cy="730249"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>184151</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>142876</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Speech Bubble: Rectangle 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{133FF3F1-6828-46D2-AE97-C20B16E6A530}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21345526" y="2581274"/>
+          <a:ext cx="4737100" cy="2990851"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -40098"/>
+            <a:gd name="adj2" fmla="val -70722"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>No.2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>タイトルが下記の通り表示されること</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Drawing Search and Print System [</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>図面登録依頼詳細</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>No.3</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>「図面登録依頼詳細」と表示されている</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>No.4</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>セッション情報から取得した以下のログインユーザー情報が表示される</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　職番：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ユーザー</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ID] </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>=USER_MASTER.USER_ID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>）</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　名前：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>氏名（和文）</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>=USER_MASTER.USER_NAME</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>）</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　部署名（店名）：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>部署名</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>]  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>=USER_MASTER.DEPARTMENT</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>）</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>No.5</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ラベルは、依頼</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>、状態、依頼内容、図番の</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>項目</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>メッセージは、存在する場合のみ赤枠で囲ったリンクが表示される</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>240678</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>144258</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A774D88-D900-80A0-72C8-9BFD5D27B678}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="682625" y="5445125"/>
+          <a:ext cx="18290553" cy="9907383"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>542303</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>144258</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E3091BD-CC65-B1FB-A6AC-97CF31182094}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20097750" y="11636375"/>
+          <a:ext cx="18290553" cy="9907383"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>79374</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>222250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEBF2510-35A0-4269-9C89-B25557F19843}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27003374" y="6381750"/>
+          <a:ext cx="4587876" cy="3000375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>41276</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>438149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Speech Bubble: Rectangle 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{356638B0-4942-9418-7D0C-9BEE59CA799F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1708151" y="914399"/>
+          <a:ext cx="2784474" cy="323851"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -50360"/>
+            <a:gd name="adj2" fmla="val 144963"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>原図庫で図面作業が完了していない場合</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>41276</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Speech Bubble: Rectangle 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E97D8A7-8B8A-AE91-D9B7-F135DAA748A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1708151" y="3121024"/>
+          <a:ext cx="2784474" cy="323851"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -50360"/>
+            <a:gd name="adj2" fmla="val 144963"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>原図庫で「原紙なし」と入力された場合</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>136525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>460375</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>174626</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Speech Bubble: Rectangle 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACC06EA7-B39D-85E1-9705-AA2084C59A2C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1724026" y="1771650"/>
+          <a:ext cx="1085849" cy="276226"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -50360"/>
+            <a:gd name="adj2" fmla="val 144963"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>登録済の場合</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>263525</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>215899</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Speech Bubble: Rectangle 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03D2F75C-21C2-4615-C06A-4DEDAA1783DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21043900" y="7804149"/>
+          <a:ext cx="5292725" cy="6292851"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 41185"/>
+            <a:gd name="adj2" fmla="val -57150"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>No.6</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>原図庫作業依頼テーブルの依頼</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>が表示されること</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>No.7</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>「依頼中」と表示されること</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>No.8</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>「完了」と表示されること</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>No.9</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>「完了」と表示されること</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>No.10</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>「完了」と表示されること</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>No.11</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>「完了」と表示されること</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>No.12</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>「完了」と表示されること</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>No.13</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>「完了」と表示されること</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>No.14</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>「図面登録依頼」と表示されている</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>No.15</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>原図庫作業依頼テーブルの開始図番が表示されていること</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>11</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>桁図番の場合には、「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>」が入っていること</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>No.16</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>原図庫作業依頼テーブルの終了図番が表示されていること</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>11</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>桁図番の場合には、「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>」が入っていること</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>No.17</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>状態が「完了」で、「原紙なし」として処理された依頼の場合に表示されること</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>No.18</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>テキストには、メッセージ画面を起動するリンクが貼られている。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>No.19</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Close</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>」ボタンが表示されていること</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>380998</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>127001</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>396874</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Rectangle 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{903A41AE-0808-58F8-91FB-ED983D8A6D42}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7508873" y="6286501"/>
+          <a:ext cx="4794251" cy="1873250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Speech Bubble: Rectangle 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E01F7EB0-70B2-7E92-FA4D-C79D59605186}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1343025" y="8026399"/>
+          <a:ext cx="5292725" cy="6292851"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 41185"/>
+            <a:gd name="adj2" fmla="val -57150"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>No.6</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>原図庫作業依頼テーブルの依頼</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>が表示されること</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>No.7</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>「依頼中」と表示されること</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>No.8</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>「完了」と表示されること</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>No.9</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>「完了」と表示されること</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>No.10</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>「完了」と表示されること</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>No.11</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>「完了」と表示されること</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>No.12</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>「完了」と表示されること</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>No.13</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>「完了」と表示されること</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>No.14</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>「図面登録依頼」と表示されている</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>No.15</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>原図庫作業依頼テーブルの開始図番が表示されていること</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>11</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>桁図番の場合には、「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>」が入っていること</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>No.16</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>原図庫作業依頼テーブルの終了図番が表示されていること</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>11</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>桁図番の場合には、「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>」が入っていること</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>No.17</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>状態が「完了」で、「原紙なし」として処理された依頼の場合に表示されること</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>No.18</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>テキストには、メッセージ画面を起動するリンクが貼られている。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>No.19</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Close</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>」ボタンが表示されていること</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>281535</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>77174</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C29ED76-05BD-2478-9386-AEEF8E2D0FDE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="682625" y="11191875"/>
+          <a:ext cx="15299285" cy="6982799"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>542303</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>144258</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9516534D-E99F-49DD-B7E1-7B8E5CEBBC67}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="682625" y="714375"/>
+          <a:ext cx="18290553" cy="9907383"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>542303</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>144258</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30C8E962-72B2-4876-98D9-3A8B4AB91377}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19888200" y="714375"/>
+          <a:ext cx="18373103" cy="9907383"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>587376</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5F53E84-658B-4B0A-A84A-75A3C4E48123}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11699875" y="1714501"/>
+          <a:ext cx="492126" cy="269874"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>311149</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>231773</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>15875</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>222250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Speech Bubble: Rectangle 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{188712B5-93CF-49BD-B37E-01C64181A567}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7137399" y="14519273"/>
+          <a:ext cx="6530976" cy="4038602"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -40098"/>
+            <a:gd name="adj2" fmla="val -70722"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>No.21</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>図面登録作業者からのメッセージを表示するためのメッセージ画面が新規オープンされること。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>No.22</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>タイトルが下記の通り表示されること</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>Drawing Search and Print System [</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>図面登録作業者からのメッセージ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>No.23</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>当該メッセージの対象依頼</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>が表示されること。（前画面で選択した項目の依頼</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>）</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>No.24</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>「図面登録依頼」と表示されている</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>No.25</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>「原紙なし」と表示されている</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>No.26</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>当該メッセージの対象図番が表示されること。（前画面で選択した項目の展開後の図番）</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>No.27</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>原図庫作業依頼展開テーブルに格納されている当該メッセージのメッセージ情報が表示されている。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>No.28</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>Close</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>ボタンが表示されている</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>644525</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>15876</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Speech Bubble: Rectangle 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{902F29F5-C88E-33F0-91D0-1A5076B87CBF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12249150" y="2089150"/>
+          <a:ext cx="466725" cy="307976"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -57105"/>
+            <a:gd name="adj2" fmla="val -106804"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>押下</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>281535</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>77174</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21DCDF1D-6777-6126-04F6-0F63A380367D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19796125" y="10953750"/>
+          <a:ext cx="15299285" cy="6982799"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>25399</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>57148</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>412750</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Speech Bubble: Rectangle 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AFA7AFD-AEFB-7CA2-04AB-83BAF104A439}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28013024" y="14344648"/>
+          <a:ext cx="6530976" cy="4038602"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -40827"/>
+            <a:gd name="adj2" fmla="val -64826"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>No.21</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>図面登録作業者からのメッセージを表示するためのメッセージ画面が新規オープンされること。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>No.22</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>タイトルが下記の通り表示されること</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>Drawing Search and Print System [</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>図面登録作業者からのメッセージ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>No.23</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>当該メッセージの対象依頼</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>が表示されること。（前画面で選択した項目の依頼</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>）</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>No.24</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>「図面登録依頼」と表示されている</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>No.25</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>「原紙なし」と表示されている</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>No.26</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>当該メッセージの対象図番が表示されること。（前画面で選択した項目の展開後の図番）</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>No.27</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>原図庫作業依頼展開テーブルに格納されている当該メッセージのメッセージ情報が表示されている。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>No.28</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>Close</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>ボタンが表示されている</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>174625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Rectangle 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E908285-2101-470B-9156-14401D630A95}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19796125" y="10953750"/>
+          <a:ext cx="15303500" cy="2794000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Rectangle 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{620AE6AE-8295-AC49-695D-73EC2FCBE7D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="682625" y="11207750"/>
+          <a:ext cx="15303500" cy="2460625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>542303</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>144258</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4F802C4-BE28-4A46-9B52-E6D2EFC37801}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19888200" y="10953750"/>
+          <a:ext cx="18373103" cy="9907383"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>542303</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>144258</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81CC191D-C6DB-4F5D-8B45-010A9222C149}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="10953750"/>
+          <a:ext cx="18373103" cy="9907383"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>174626</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFD9AC15-8EB4-46B2-8A6C-2B5811C230F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8524875" y="11509375"/>
+          <a:ext cx="523876" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>396875</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>187324</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Speech Bubble: Rectangle 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86A75D1B-5E06-434D-BCA0-B2CCEB4766C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8588375" y="12049124"/>
+          <a:ext cx="2520949" cy="571501"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -38854"/>
+            <a:gd name="adj2" fmla="val -100260"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>作業履歴画面がクローズされること。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>呼出し元への画面遷移はなし。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>174626</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Rectangle 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92C75923-9D17-BBB5-39EE-8AD24202E512}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27638375" y="1270000"/>
+          <a:ext cx="523876" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>396875</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>187324</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Speech Bubble: Rectangle 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{984DD283-775B-5E19-1E45-73184B08E3BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27701875" y="1809749"/>
+          <a:ext cx="2520949" cy="571501"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -38854"/>
+            <a:gd name="adj2" fmla="val -100260"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>作業履歴画面がクローズされること。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>呼出し元への画面遷移はなし。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1621,28 +7984,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="18"/>
-      <c r="N1" s="38" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="17"/>
+      <c r="N1" s="23" t="s">
         <v>78</v>
       </c>
       <c r="O1" s="2">
         <f>COUNTIF(N$7:N$1000,N1)</f>
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="17" t="s">
+      <c r="B2" s="34"/>
+      <c r="C2" s="16" t="s">
         <v>76</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -1651,7 +8014,7 @@
       <c r="E2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="38" t="s">
+      <c r="N2" s="23" t="s">
         <v>79</v>
       </c>
       <c r="O2" s="2">
@@ -1660,21 +8023,21 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="33"/>
+      <c r="B3" s="36"/>
       <c r="C3" s="5" t="s">
         <v>77</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="23">
+      <c r="E3" s="22">
         <v>45553</v>
       </c>
-      <c r="F3" s="19"/>
-      <c r="N3" s="38" t="s">
+      <c r="F3" s="18"/>
+      <c r="N3" s="23" t="s">
         <v>80</v>
       </c>
       <c r="O3" s="2">
@@ -1683,15 +8046,15 @@
       </c>
     </row>
     <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="18"/>
-      <c r="N4" s="38" t="s">
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="17"/>
+      <c r="N4" s="23" t="s">
         <v>81</v>
       </c>
       <c r="O4" s="2">
@@ -1700,24 +8063,24 @@
       </c>
     </row>
     <row r="5" spans="1:17" ht="67.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="20"/>
-      <c r="N5" s="38" t="s">
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="19"/>
+      <c r="N5" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="O5" s="39" t="str">
+      <c r="O5" s="24" t="str">
         <f>"未実施："&amp;COUNTA(M$7:M$1000)-SUM(O1:O4)&amp;"／実施済："&amp;SUM(O1:O4)</f>
-        <v>未実施：29／実施済：0</v>
+        <v>未実施：1／実施済：28</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="21" t="s">
         <v>75</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -1726,17 +8089,17 @@
       <c r="C6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
       <c r="M6" s="8" t="s">
         <v>6</v>
       </c>
@@ -1753,760 +8116,930 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A7" s="9">
+    <row r="7" spans="1:17" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A7" s="26">
         <v>1</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="12" t="s">
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="N7" s="13"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="15"/>
+      <c r="N7" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="O7" s="13">
+        <v>45559</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q7" s="14"/>
     </row>
     <row r="8" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
-      <c r="A8" s="9">
+      <c r="A8" s="26">
         <v>2</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11" t="s">
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="12" t="s">
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="N8" s="13"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="15"/>
+      <c r="N8" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="O8" s="13">
+        <v>45559</v>
+      </c>
+      <c r="P8" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q8" s="14"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A9" s="9">
+    <row r="9" spans="1:17" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A9" s="26">
         <v>3</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11" t="s">
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="12" t="s">
+      <c r="F9" s="10"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="N9" s="13"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="15"/>
+      <c r="N9" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="O9" s="13">
+        <v>45559</v>
+      </c>
+      <c r="P9" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q9" s="14"/>
     </row>
     <row r="10" spans="1:17" ht="63" x14ac:dyDescent="0.4">
-      <c r="A10" s="9">
+      <c r="A10" s="26">
         <v>4</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11" t="s">
+      <c r="B10" s="9"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="12" t="s">
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="N10" s="13"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="15"/>
+      <c r="N10" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="O10" s="13">
+        <v>45559</v>
+      </c>
+      <c r="P10" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q10" s="14"/>
     </row>
     <row r="11" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
-      <c r="A11" s="9">
+      <c r="A11" s="26">
         <v>5</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11" t="s">
+      <c r="B11" s="9"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="12" t="s">
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="N11" s="13"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="15"/>
+      <c r="N11" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="O11" s="13">
+        <v>45559</v>
+      </c>
+      <c r="P11" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q11" s="14"/>
     </row>
     <row r="12" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
-      <c r="A12" s="9">
+      <c r="A12" s="26">
         <v>6</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11" t="s">
+      <c r="B12" s="9"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="12" t="s">
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="N12" s="13"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="15"/>
+      <c r="N12" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="O12" s="13">
+        <v>45559</v>
+      </c>
+      <c r="P12" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q12" s="14"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A13" s="9">
+    <row r="13" spans="1:17" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A13" s="26">
         <v>7</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10" t="s">
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="12" t="s">
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="N13" s="13"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="15"/>
+      <c r="N13" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="O13" s="13">
+        <v>45559</v>
+      </c>
+      <c r="P13" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q13" s="14"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A14" s="9">
+    <row r="14" spans="1:17" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A14" s="26">
         <v>8</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10" t="s">
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="12" t="s">
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="N14" s="13"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="15"/>
+      <c r="N14" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="O14" s="13">
+        <v>45559</v>
+      </c>
+      <c r="P14" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q14" s="14"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A15" s="9">
+    <row r="15" spans="1:17" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A15" s="26">
         <v>9</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10" t="s">
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="H15" s="10" t="s">
+      <c r="H15" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="12" t="s">
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="N15" s="13"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="15"/>
+      <c r="N15" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="O15" s="13">
+        <v>45559</v>
+      </c>
+      <c r="P15" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q15" s="14"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A16" s="9">
+    <row r="16" spans="1:17" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A16" s="26">
         <v>10</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10" t="s">
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="12" t="s">
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="N16" s="13"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="15"/>
+      <c r="N16" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="O16" s="13">
+        <v>45559</v>
+      </c>
+      <c r="P16" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q16" s="14"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A17" s="9">
+    <row r="17" spans="1:17" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A17" s="26">
         <v>11</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10" t="s">
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="12" t="s">
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="N17" s="13"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="15"/>
+      <c r="N17" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="O17" s="13">
+        <v>45559</v>
+      </c>
+      <c r="P17" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q17" s="14"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A18" s="9">
+    <row r="18" spans="1:17" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A18" s="26">
         <v>12</v>
       </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10" t="s">
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="H18" s="10" t="s">
+      <c r="H18" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="12" t="s">
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="N18" s="13"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="15"/>
+      <c r="N18" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="O18" s="13">
+        <v>45559</v>
+      </c>
+      <c r="P18" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q18" s="14"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A19" s="9">
+    <row r="19" spans="1:17" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A19" s="26">
         <v>13</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10" t="s">
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="12" t="s">
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="N19" s="13"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="15"/>
+      <c r="N19" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="O19" s="13">
+        <v>45559</v>
+      </c>
+      <c r="P19" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q19" s="14"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A20" s="9">
+    <row r="20" spans="1:17" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A20" s="26">
         <v>14</v>
       </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10" t="s">
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="12" t="s">
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="N20" s="13"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="15"/>
+      <c r="N20" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="O20" s="13">
+        <v>45559</v>
+      </c>
+      <c r="P20" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q20" s="14"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A21" s="9">
+    <row r="21" spans="1:17" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A21" s="26">
         <v>15</v>
       </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10" t="s">
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="12" t="s">
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="N21" s="13"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="15"/>
+      <c r="N21" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="O21" s="13">
+        <v>45559</v>
+      </c>
+      <c r="P21" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q21" s="14"/>
     </row>
     <row r="22" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
-      <c r="A22" s="9">
+      <c r="A22" s="26">
         <v>16</v>
       </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10" t="s">
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G22" s="10" t="s">
+      <c r="G22" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="12" t="s">
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="N22" s="13"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="15"/>
+      <c r="N22" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="O22" s="13">
+        <v>45559</v>
+      </c>
+      <c r="P22" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q22" s="14"/>
     </row>
     <row r="23" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
-      <c r="A23" s="9">
+      <c r="A23" s="26">
         <v>17</v>
       </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10" t="s">
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="12" t="s">
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="N23" s="13"/>
-      <c r="O23" s="14"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="15"/>
+      <c r="N23" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="O23" s="13">
+        <v>45559</v>
+      </c>
+      <c r="P23" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q23" s="14"/>
     </row>
     <row r="24" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
-      <c r="A24" s="9">
+      <c r="A24" s="26">
         <v>18</v>
       </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10" t="s">
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="12" t="s">
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="N24" s="13"/>
-      <c r="O24" s="14"/>
-      <c r="P24" s="13"/>
-      <c r="Q24" s="15"/>
+      <c r="N24" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="O24" s="13">
+        <v>45559</v>
+      </c>
+      <c r="P24" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q24" s="14"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A25" s="9">
+    <row r="25" spans="1:17" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A25" s="26">
         <v>19</v>
       </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10" t="s">
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F25" s="11"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="12" t="s">
+      <c r="F25" s="10"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="N25" s="13"/>
-      <c r="O25" s="14"/>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="15"/>
+      <c r="N25" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="O25" s="13">
+        <v>45559</v>
+      </c>
+      <c r="P25" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q25" s="14"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A26" s="9">
+      <c r="A26" s="49">
         <v>20</v>
       </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10" t="s">
+      <c r="B26" s="50"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="F26" s="11"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="12" t="s">
+      <c r="F26" s="50"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="51"/>
+      <c r="K26" s="51"/>
+      <c r="L26" s="51"/>
+      <c r="M26" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="N26" s="13"/>
-      <c r="O26" s="14"/>
-      <c r="P26" s="13"/>
-      <c r="Q26" s="15"/>
+      <c r="N26" s="49"/>
+      <c r="O26" s="52"/>
+      <c r="P26" s="49"/>
+      <c r="Q26" s="53" t="s">
+        <v>157</v>
+      </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A27" s="9">
+    <row r="27" spans="1:17" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A27" s="26">
         <v>21</v>
       </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11" t="s">
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="E27" s="10" t="s">
+      <c r="E27" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="F27" s="10" t="s">
+      <c r="F27" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="12" t="s">
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="N27" s="13"/>
-      <c r="O27" s="14"/>
-      <c r="P27" s="13"/>
-      <c r="Q27" s="15"/>
+      <c r="N27" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="O27" s="13">
+        <v>45559</v>
+      </c>
+      <c r="P27" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q27" s="14"/>
     </row>
     <row r="28" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
-      <c r="A28" s="9">
+      <c r="A28" s="26">
         <v>22</v>
       </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10" t="s">
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="G28" s="11" t="s">
+      <c r="G28" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H28" s="11" t="s">
+      <c r="H28" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I28" s="11" t="s">
+      <c r="I28" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="J28" s="11"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="12" t="s">
+      <c r="J28" s="10"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="N28" s="13"/>
-      <c r="O28" s="14"/>
-      <c r="P28" s="13"/>
-      <c r="Q28" s="15"/>
+      <c r="N28" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="O28" s="13">
+        <v>45559</v>
+      </c>
+      <c r="P28" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q28" s="14"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A29" s="9">
+    <row r="29" spans="1:17" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A29" s="26">
         <v>23</v>
       </c>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10" t="s">
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="I29" s="10" t="s">
+      <c r="I29" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="21" t="s">
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="N29" s="13"/>
-      <c r="O29" s="14"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="15"/>
+      <c r="N29" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="O29" s="13">
+        <v>45559</v>
+      </c>
+      <c r="P29" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q29" s="14"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A30" s="9">
+    <row r="30" spans="1:17" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A30" s="26">
         <v>24</v>
       </c>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10" t="s">
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="J30" s="11"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="21" t="s">
+      <c r="J30" s="10"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="N30" s="13"/>
-      <c r="O30" s="14"/>
-      <c r="P30" s="13"/>
-      <c r="Q30" s="15"/>
+      <c r="N30" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="O30" s="13">
+        <v>45559</v>
+      </c>
+      <c r="P30" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q30" s="14"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A31" s="9">
+    <row r="31" spans="1:17" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A31" s="26">
         <v>25</v>
       </c>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11" t="s">
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="21" t="s">
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="N31" s="13"/>
-      <c r="O31" s="14"/>
-      <c r="P31" s="13"/>
-      <c r="Q31" s="15"/>
+      <c r="N31" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="O31" s="13">
+        <v>45559</v>
+      </c>
+      <c r="P31" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q31" s="14"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A32" s="9">
+    <row r="32" spans="1:17" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A32" s="26">
         <v>26</v>
       </c>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11" t="s">
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="21" t="s">
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="N32" s="13"/>
-      <c r="O32" s="14"/>
-      <c r="P32" s="13"/>
-      <c r="Q32" s="15"/>
+      <c r="N32" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="O32" s="13">
+        <v>45559</v>
+      </c>
+      <c r="P32" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q32" s="14"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A33" s="9">
+    <row r="33" spans="1:17" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A33" s="26">
         <v>27</v>
       </c>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11" t="s">
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="21" t="s">
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="N33" s="13"/>
-      <c r="O33" s="14"/>
-      <c r="P33" s="13"/>
-      <c r="Q33" s="15"/>
+      <c r="N33" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="O33" s="13">
+        <v>45559</v>
+      </c>
+      <c r="P33" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q33" s="14"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A34" s="9">
+    <row r="34" spans="1:17" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A34" s="26">
         <v>28</v>
       </c>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11" t="s">
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="J34" s="10"/>
-      <c r="K34" s="10"/>
-      <c r="L34" s="10"/>
-      <c r="M34" s="12" t="s">
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="N34" s="13"/>
-      <c r="O34" s="14"/>
-      <c r="P34" s="13"/>
-      <c r="Q34" s="15"/>
+      <c r="N34" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="O34" s="13">
+        <v>45559</v>
+      </c>
+      <c r="P34" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q34" s="14"/>
     </row>
     <row r="35" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
-      <c r="A35" s="9">
+      <c r="A35" s="26">
         <v>29</v>
       </c>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11" t="s">
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="F35" s="10" t="s">
+      <c r="F35" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="10"/>
-      <c r="M35" s="12" t="s">
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="N35" s="13"/>
-      <c r="O35" s="14"/>
-      <c r="P35" s="13"/>
-      <c r="Q35" s="15"/>
+      <c r="N35" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="O35" s="13">
+        <v>45559</v>
+      </c>
+      <c r="P35" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q35" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2518,12 +9051,1387 @@
     <mergeCell ref="A5:E5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="A7" location="No.1!A1" display="No.1!A1" xr:uid="{47609AB2-B82C-4FD4-BA04-E39442B29D32}"/>
+    <hyperlink ref="A8" location="'No.2~5'!A1" display="'No.2~5'!A1" xr:uid="{C170EB66-1907-4FED-AAC7-4CD59607816F}"/>
+    <hyperlink ref="A9:A11" location="'No.2~5'!A1" display="'No.2~5'!A1" xr:uid="{6260D697-ED51-49C7-934B-4E62D37ED98D}"/>
+    <hyperlink ref="A12" location="'No.6~20'!A1" display="'No.6~20'!A1" xr:uid="{6E418C99-D104-464C-9B51-C9B585DC93AA}"/>
+    <hyperlink ref="A27" location="'No.21~28'!A1" display="'No.21~28'!A1" xr:uid="{4328E45E-4110-4426-9D86-4A7961C49913}"/>
+    <hyperlink ref="A28:A34" location="'No.21~28'!A1" display="'No.21~28'!A1" xr:uid="{28B81703-66C4-40DD-A44F-2B5D5EDF4531}"/>
+    <hyperlink ref="A35" location="No.29!A1" display="No.29!A1" xr:uid="{C5B241DA-4B4A-4C69-B3F9-5AA4FEBA8F06}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D661C9E8-2831-453B-9B79-A8B25130728B}">
+  <dimension ref="B2:AD2"/>
+  <sheetViews>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="2" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="B2" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD2" s="25" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3876D02B-8A2E-43FE-8F78-2CEAF8A9E9E1}">
+  <dimension ref="B2:AD2"/>
+  <sheetViews>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="2" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="B2" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD2" s="25" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80EBCD9C-7ED4-4ABC-9467-CF4669C9E7F7}">
+  <dimension ref="B2:AD20"/>
+  <sheetViews>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="12.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="B2" s="45" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3" spans="2:26" ht="54" x14ac:dyDescent="0.4">
+      <c r="B3" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="F3" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="G3" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="H3" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="I3" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="J3" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="K3" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="L3" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="M3" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="N3" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="O3" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="P3" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q3" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="R3" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="S3" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="T3" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="U3" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="V3" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="W3" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="X3" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y3" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z3" s="41" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="B4" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="E4" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="F4" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="G4" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="H4" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="I4" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="J4" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="K4" s="44">
+        <v>43692.613969907405</v>
+      </c>
+      <c r="L4" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="M4" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="N4" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="O4" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="P4" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q4" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="R4" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="S4" s="44">
+        <v>45492.446886574071</v>
+      </c>
+      <c r="T4" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="U4" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="V4" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="W4" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="X4" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y4" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z4" s="42" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="B5" s="48" t="s">
+        <v>139</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="E5" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="F5" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="G5" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="H5" s="42" t="s">
+        <v>140</v>
+      </c>
+      <c r="I5" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="J5" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="K5" s="44">
+        <v>44480.482638888891</v>
+      </c>
+      <c r="L5" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="M5" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="N5" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="O5" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="P5" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q5" s="48" t="s">
+        <v>116</v>
+      </c>
+      <c r="R5" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="S5" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="T5" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="U5" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="V5" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="W5" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="X5" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y5" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z5" s="43" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="B6" s="42" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="E6" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="F6" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="G6" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="H6" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="I6" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="J6" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="K6" s="44">
+        <v>44480.539965277778</v>
+      </c>
+      <c r="L6" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="M6" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="N6" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="O6" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="P6" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q6" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="R6" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="S6" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="T6" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="U6" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="V6" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="W6" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="X6" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y6" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z6" s="43" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="B7" s="42" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="E7" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="F7" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="G7" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="H7" s="42" t="s">
+        <v>135</v>
+      </c>
+      <c r="I7" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="J7" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="K7" s="44">
+        <v>45404.588206018518</v>
+      </c>
+      <c r="L7" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="M7" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="N7" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="O7" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="P7" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q7" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="R7" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="S7" s="44">
+        <v>45559.62054398148</v>
+      </c>
+      <c r="T7" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="U7" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="V7" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="W7" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="X7" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y7" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z7" s="42" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="B8" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="E8" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="F8" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="G8" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="H8" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="I8" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="J8" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="K8" s="44">
+        <v>45413.607766203706</v>
+      </c>
+      <c r="L8" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="M8" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="N8" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="O8" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="P8" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q8" s="47" t="s">
+        <v>112</v>
+      </c>
+      <c r="R8" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="S8" s="44">
+        <v>45559.62054398148</v>
+      </c>
+      <c r="T8" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="U8" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="V8" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="W8" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="X8" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y8" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z8" s="42" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="B9" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="D9" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="E9" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="F9" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="G9" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="H9" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="I9" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="J9" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="K9" s="44">
+        <v>45413.607766203706</v>
+      </c>
+      <c r="L9" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="M9" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="N9" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="O9" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="P9" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q9" s="47" t="s">
+        <v>112</v>
+      </c>
+      <c r="R9" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="S9" s="44">
+        <v>45559.62054398148</v>
+      </c>
+      <c r="T9" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="U9" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="V9" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="W9" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="X9" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y9" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z9" s="42" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="B10" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="E10" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="F10" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="G10" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="H10" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="I10" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="J10" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="K10" s="44">
+        <v>45413.607766203706</v>
+      </c>
+      <c r="L10" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="M10" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="N10" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="O10" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="P10" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q10" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="R10" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="S10" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="T10" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="U10" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="V10" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="W10" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="X10" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y10" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z10" s="43" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="B11" s="42" t="s">
+        <v>141</v>
+      </c>
+      <c r="C11" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="D11" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="E11" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="F11" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="G11" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="H11" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="I11" s="42" t="s">
+        <v>143</v>
+      </c>
+      <c r="J11" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="K11" s="44">
+        <v>45495.587199074071</v>
+      </c>
+      <c r="L11" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="M11" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="N11" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="O11" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="P11" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q11" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="R11" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="S11" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="T11" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="U11" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="V11" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="W11" s="42" t="s">
+        <v>133</v>
+      </c>
+      <c r="X11" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y11" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z11" s="43" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="B12" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="C12" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="E12" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="F12" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="G12" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="H12" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="I12" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="J12" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="K12" s="44">
+        <v>45495.589328703703</v>
+      </c>
+      <c r="L12" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="M12" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="N12" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="O12" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="P12" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q12" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="R12" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="S12" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="T12" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="U12" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="V12" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="W12" s="42" t="s">
+        <v>133</v>
+      </c>
+      <c r="X12" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y12" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z12" s="43" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="B13" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="C13" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="D13" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="E13" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="F13" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="G13" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="H13" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="I13" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="J13" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="K13" s="44">
+        <v>45540.445405092592</v>
+      </c>
+      <c r="L13" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="M13" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="N13" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="O13" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="P13" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q13" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="R13" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="S13" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="T13" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="U13" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="V13" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="W13" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="X13" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y13" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z13" s="43" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="B14" s="46" t="s">
+        <v>150</v>
+      </c>
+      <c r="C14" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="D14" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="E14" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="F14" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="G14" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="H14" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="I14" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="J14" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="K14" s="44">
+        <v>45540.445844907408</v>
+      </c>
+      <c r="L14" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="M14" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="N14" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="O14" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="P14" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q14" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="R14" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="S14" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="T14" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="U14" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="V14" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="W14" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="X14" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y14" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z14" s="43" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="B15" s="46" t="s">
+        <v>153</v>
+      </c>
+      <c r="C15" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="D15" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="E15" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="F15" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="G15" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="H15" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="I15" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="J15" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="K15" s="44">
+        <v>45540.446388888886</v>
+      </c>
+      <c r="L15" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="M15" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="N15" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="O15" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="P15" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q15" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="R15" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="S15" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="T15" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="U15" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="V15" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="W15" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="X15" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y15" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z15" s="43" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="B16" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="C16" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="D16" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="E16" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="F16" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="G16" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="H16" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="I16" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="J16" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="K16" s="44">
+        <v>45540.450439814813</v>
+      </c>
+      <c r="L16" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="M16" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="N16" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="O16" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="P16" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q16" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="R16" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="S16" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="T16" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="U16" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="V16" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="W16" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="X16" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y16" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z16" s="43" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="B17" s="42" t="s">
+        <v>152</v>
+      </c>
+      <c r="C17" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="D17" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="E17" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="G17" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="H17" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="I17" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="J17" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="K17" s="44">
+        <v>45540.454432870371</v>
+      </c>
+      <c r="L17" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="M17" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="N17" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="O17" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="P17" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q17" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="R17" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="S17" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="T17" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="U17" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="V17" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="W17" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="X17" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y17" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z17" s="43" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="B18" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="C18" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="D18" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="E18" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="F18" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="G18" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="H18" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="I18" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="J18" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="K18" s="44">
+        <v>45559.628321759257</v>
+      </c>
+      <c r="L18" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="M18" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="N18" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="O18" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="P18" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q18" s="47" t="s">
+        <v>112</v>
+      </c>
+      <c r="R18" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="S18" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="T18" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="U18" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="V18" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="W18" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="X18" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y18" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z18" s="43" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="B20" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD20" s="25" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AE03260-E8EA-4C79-B732-59B663B8B1AB}">
+  <dimension ref="B2:AD2"/>
+  <sheetViews>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="2" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="B2" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD2" s="25" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E885683-850F-48B9-B675-6D46FBCEEA35}">
+  <dimension ref="B2:AD2"/>
+  <sheetViews>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="2" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="B2" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD2" s="25" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e8618445-b921-4c48-afdf-14e883213c59">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -2532,7 +10440,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100B932A2821493BB4AB71A0C79347FD678" ma:contentTypeVersion="13" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="528594b33024f52b27c0b5dcdc9dfa0b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d" xmlns:ns3="e8618445-b921-4c48-afdf-14e883213c59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="25e4712d85e376121aa3366c94b400a9" ns2:_="" ns3:_="">
     <xsd:import namespace="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d"/>
@@ -2755,18 +10663,18 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e8618445-b921-4c48-afdf-14e883213c59">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B32E28B-C846-49C6-BEC1-CFA8F8DC97F9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e8618445-b921-4c48-afdf-14e883213c59"/>
+    <ds:schemaRef ds:uri="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{256F5120-266C-40C0-AA81-FCA7161B4644}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -2774,7 +10682,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{00BA9BEF-9FC1-4455-9BC8-4A219529FD7E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2791,15 +10699,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B32E28B-C846-49C6-BEC1-CFA8F8DC97F9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e8618445-b921-4c48-afdf-14e883213c59"/>
-    <ds:schemaRef ds:uri="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/PJ管理/01.成果物/04.T_テスト／移行/テスト仕様書兼報告書_DMS40301_図面登録依頼詳細画面.xlsx
+++ b/PJ管理/01.成果物/04.T_テスト／移行/テスト仕様書兼報告書_DMS40301_図面登録依頼詳細画面.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\DRASAP_Web\PJ管理\01.成果物\04.T_テスト／移行\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A85BA0-7FF5-489C-B556-22864FD4A17E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1D8D4F1-7906-4165-82AC-EE6903DBD117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,8 +17,9 @@
     <sheet name="No.1" sheetId="5" r:id="rId2"/>
     <sheet name="No.2~5" sheetId="6" r:id="rId3"/>
     <sheet name="No.6~19" sheetId="7" r:id="rId4"/>
-    <sheet name="No.21~28" sheetId="8" r:id="rId5"/>
-    <sheet name="No.29" sheetId="9" r:id="rId6"/>
+    <sheet name="No.20" sheetId="10" r:id="rId5"/>
+    <sheet name="No.21~28" sheetId="8" r:id="rId6"/>
+    <sheet name="No.29" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="158">
   <si>
     <t>作成者</t>
     <rPh sb="0" eb="3">
@@ -1730,6 +1731,42 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="9" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="10" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1772,44 +1809,8 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="10" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -6129,6 +6130,131 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>542303</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>144258</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD8E454C-8FD1-42C2-80AB-F7A6EC1A4E91}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="714375"/>
+          <a:ext cx="18373103" cy="9907383"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>79375</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>63501</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Speech Bubble: Rectangle 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF5B9BBF-8F1D-4C29-A707-3E6924460A21}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15678150" y="1866900"/>
+          <a:ext cx="2149475" cy="339726"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 44097"/>
+            <a:gd name="adj2" fmla="val -131469"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>HELP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>ボタンが存在しないこと。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -7313,7 +7439,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -7984,13 +8110,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="32"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="44"/>
       <c r="F1" s="17"/>
       <c r="N1" s="23" t="s">
         <v>78</v>
@@ -8001,10 +8127,10 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="34"/>
+      <c r="B2" s="46"/>
       <c r="C2" s="16" t="s">
         <v>76</v>
       </c>
@@ -8023,10 +8149,10 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="36"/>
+      <c r="B3" s="48"/>
       <c r="C3" s="5" t="s">
         <v>77</v>
       </c>
@@ -8042,17 +8168,17 @@
       </c>
       <c r="O3" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="32"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="44"/>
       <c r="F4" s="17"/>
       <c r="N4" s="23" t="s">
         <v>81</v>
@@ -8063,20 +8189,20 @@
       </c>
     </row>
     <row r="5" spans="1:17" ht="67.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="40"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="52"/>
       <c r="F5" s="19"/>
       <c r="N5" s="23" t="s">
         <v>82</v>
       </c>
       <c r="O5" s="24" t="str">
         <f>"未実施："&amp;COUNTA(M$7:M$1000)-SUM(O1:O4)&amp;"／実施済："&amp;SUM(O1:O4)</f>
-        <v>未実施：1／実施済：28</v>
+        <v>未実施：0／実施済：29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.4">
@@ -8089,14 +8215,14 @@
       <c r="C6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="29"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="41"/>
       <c r="J6" s="15"/>
       <c r="K6" s="15"/>
       <c r="L6" s="15"/>
@@ -8721,30 +8847,32 @@
       </c>
       <c r="Q25" s="14"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A26" s="49">
+    <row r="26" spans="1:17" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A26" s="53">
         <v>20</v>
       </c>
-      <c r="B26" s="50"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="51" t="s">
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="F26" s="50"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="51"/>
-      <c r="J26" s="51"/>
-      <c r="K26" s="51"/>
-      <c r="L26" s="51"/>
-      <c r="M26" s="51" t="s">
+      <c r="F26" s="36"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="N26" s="49"/>
-      <c r="O26" s="52"/>
-      <c r="P26" s="49"/>
-      <c r="Q26" s="53" t="s">
+      <c r="N26" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="O26" s="38"/>
+      <c r="P26" s="35"/>
+      <c r="Q26" s="14" t="s">
         <v>157</v>
       </c>
     </row>
@@ -9059,6 +9187,7 @@
     <hyperlink ref="A27" location="'No.21~28'!A1" display="'No.21~28'!A1" xr:uid="{4328E45E-4110-4426-9D86-4A7961C49913}"/>
     <hyperlink ref="A28:A34" location="'No.21~28'!A1" display="'No.21~28'!A1" xr:uid="{28B81703-66C4-40DD-A44F-2B5D5EDF4531}"/>
     <hyperlink ref="A35" location="No.29!A1" display="No.29!A1" xr:uid="{C5B241DA-4B4A-4C69-B3F9-5AA4FEBA8F06}"/>
+    <hyperlink ref="A26" location="No.20!A1" display="No.20!A1" xr:uid="{2656DDAE-C8FB-45ED-996A-F8D7B6199957}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9123,1239 +9252,1239 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="31" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="3" spans="2:26" ht="54" x14ac:dyDescent="0.4">
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="E3" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="F3" s="41" t="s">
+      <c r="F3" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="G3" s="41" t="s">
+      <c r="G3" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="H3" s="41" t="s">
+      <c r="H3" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="I3" s="41" t="s">
+      <c r="I3" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="J3" s="41" t="s">
+      <c r="J3" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="K3" s="41" t="s">
+      <c r="K3" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="L3" s="41" t="s">
+      <c r="L3" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="M3" s="41" t="s">
+      <c r="M3" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="N3" s="41" t="s">
+      <c r="N3" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="O3" s="41" t="s">
+      <c r="O3" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="P3" s="41" t="s">
+      <c r="P3" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="Q3" s="41" t="s">
+      <c r="Q3" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="R3" s="41" t="s">
+      <c r="R3" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="S3" s="41" t="s">
+      <c r="S3" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="T3" s="41" t="s">
+      <c r="T3" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="U3" s="41" t="s">
+      <c r="U3" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="V3" s="41" t="s">
+      <c r="V3" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="W3" s="41" t="s">
+      <c r="W3" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="X3" s="41" t="s">
+      <c r="X3" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="Y3" s="41" t="s">
+      <c r="Y3" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="Z3" s="41" t="s">
+      <c r="Z3" s="27" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="4" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="D4" s="42" t="s">
+      <c r="D4" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="E4" s="42" t="s">
+      <c r="E4" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="F4" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="G4" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="H4" s="42" t="s">
+      <c r="F4" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="H4" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="I4" s="42" t="s">
+      <c r="I4" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="J4" s="42" t="s">
+      <c r="J4" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="K4" s="44">
+      <c r="K4" s="30">
         <v>43692.613969907405</v>
       </c>
-      <c r="L4" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="M4" s="42" t="s">
+      <c r="L4" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="M4" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="N4" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="O4" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="P4" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q4" s="42" t="s">
+      <c r="N4" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="O4" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="P4" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q4" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="R4" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="S4" s="44">
+      <c r="R4" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="S4" s="30">
         <v>45492.446886574071</v>
       </c>
-      <c r="T4" s="42" t="s">
+      <c r="T4" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="U4" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="V4" s="42" t="s">
+      <c r="U4" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="V4" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="W4" s="42" t="s">
+      <c r="W4" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="X4" s="42" t="s">
+      <c r="X4" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="Y4" s="42" t="s">
+      <c r="Y4" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="Z4" s="42" t="s">
+      <c r="Z4" s="28" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="5" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="D5" s="42" t="s">
+      <c r="D5" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="E5" s="42" t="s">
+      <c r="E5" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="F5" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="G5" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="H5" s="42" t="s">
+      <c r="F5" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="H5" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="I5" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="J5" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="K5" s="44">
+      <c r="I5" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="J5" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="K5" s="30">
         <v>44480.482638888891</v>
       </c>
-      <c r="L5" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="M5" s="42" t="s">
+      <c r="L5" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="M5" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="N5" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="O5" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="P5" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q5" s="48" t="s">
+      <c r="N5" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="O5" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="P5" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q5" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="R5" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="S5" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="T5" s="42" t="s">
+      <c r="R5" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="S5" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="T5" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="U5" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="V5" s="42" t="s">
+      <c r="U5" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="V5" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="W5" s="42" t="s">
+      <c r="W5" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="X5" s="42" t="s">
+      <c r="X5" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="Y5" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z5" s="43" t="s">
+      <c r="Y5" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z5" s="29" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="D6" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="E6" s="42" t="s">
+      <c r="E6" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="F6" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="G6" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="H6" s="42" t="s">
+      <c r="F6" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="G6" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="H6" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="I6" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="J6" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="K6" s="44">
+      <c r="I6" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="J6" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="K6" s="30">
         <v>44480.539965277778</v>
       </c>
-      <c r="L6" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="M6" s="42" t="s">
+      <c r="L6" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="M6" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="N6" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="O6" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="P6" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q6" s="42" t="s">
+      <c r="N6" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="O6" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="P6" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q6" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="R6" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="S6" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="T6" s="42" t="s">
+      <c r="R6" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="S6" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="T6" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="U6" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="V6" s="42" t="s">
+      <c r="U6" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="V6" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="W6" s="42" t="s">
+      <c r="W6" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="X6" s="42" t="s">
+      <c r="X6" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="Y6" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z6" s="43" t="s">
+      <c r="Y6" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z6" s="29" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="D7" s="42" t="s">
+      <c r="D7" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="E7" s="42" t="s">
+      <c r="E7" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="F7" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="G7" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="H7" s="42" t="s">
+      <c r="F7" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="G7" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="H7" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="I7" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="J7" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="K7" s="44">
+      <c r="I7" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="J7" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="K7" s="30">
         <v>45404.588206018518</v>
       </c>
-      <c r="L7" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="M7" s="42" t="s">
+      <c r="L7" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="M7" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="N7" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="O7" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="P7" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q7" s="42" t="s">
+      <c r="N7" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="O7" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="P7" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q7" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="R7" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="S7" s="44">
+      <c r="R7" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="S7" s="30">
         <v>45559.62054398148</v>
       </c>
-      <c r="T7" s="42" t="s">
+      <c r="T7" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="U7" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="V7" s="42" t="s">
+      <c r="U7" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="V7" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="W7" s="42" t="s">
+      <c r="W7" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="X7" s="42" t="s">
+      <c r="X7" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="Y7" s="42" t="s">
+      <c r="Y7" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="Z7" s="42" t="s">
+      <c r="Z7" s="28" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="8" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="D8" s="42" t="s">
+      <c r="D8" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="E8" s="42" t="s">
+      <c r="E8" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="F8" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="G8" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="H8" s="42" t="s">
+      <c r="F8" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="H8" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="I8" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="J8" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="K8" s="44">
+      <c r="I8" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="J8" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="K8" s="30">
         <v>45413.607766203706</v>
       </c>
-      <c r="L8" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="M8" s="42" t="s">
+      <c r="L8" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="M8" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="N8" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="O8" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="P8" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q8" s="47" t="s">
+      <c r="N8" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="O8" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="P8" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q8" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="R8" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="S8" s="44">
+      <c r="R8" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="S8" s="30">
         <v>45559.62054398148</v>
       </c>
-      <c r="T8" s="42" t="s">
+      <c r="T8" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="U8" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="V8" s="42" t="s">
+      <c r="U8" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="V8" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="W8" s="42" t="s">
+      <c r="W8" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="X8" s="42" t="s">
+      <c r="X8" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="Y8" s="42" t="s">
+      <c r="Y8" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="Z8" s="42" t="s">
+      <c r="Z8" s="28" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="9" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="D9" s="42" t="s">
+      <c r="D9" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="E9" s="42" t="s">
+      <c r="E9" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="F9" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="G9" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="H9" s="42" t="s">
+      <c r="F9" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="G9" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="H9" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="I9" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="J9" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="K9" s="44">
+      <c r="I9" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="J9" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="K9" s="30">
         <v>45413.607766203706</v>
       </c>
-      <c r="L9" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="M9" s="42" t="s">
+      <c r="L9" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="M9" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="N9" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="O9" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="P9" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q9" s="47" t="s">
+      <c r="N9" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="O9" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="P9" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q9" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="R9" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="S9" s="44">
+      <c r="R9" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="S9" s="30">
         <v>45559.62054398148</v>
       </c>
-      <c r="T9" s="42" t="s">
+      <c r="T9" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="U9" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="V9" s="42" t="s">
+      <c r="U9" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="V9" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="W9" s="42" t="s">
+      <c r="W9" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="X9" s="42" t="s">
+      <c r="X9" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="Y9" s="42" t="s">
+      <c r="Y9" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="Z9" s="42" t="s">
+      <c r="Z9" s="28" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="C10" s="42" t="s">
+      <c r="C10" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="D10" s="42" t="s">
+      <c r="D10" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="E10" s="42" t="s">
+      <c r="E10" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="F10" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="G10" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="H10" s="42" t="s">
+      <c r="F10" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="H10" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="I10" s="42" t="s">
+      <c r="I10" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="J10" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="K10" s="44">
+      <c r="J10" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="K10" s="30">
         <v>45413.607766203706</v>
       </c>
-      <c r="L10" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="M10" s="42" t="s">
+      <c r="L10" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="M10" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="N10" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="O10" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="P10" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q10" s="42" t="s">
+      <c r="N10" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="O10" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="P10" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q10" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="R10" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="S10" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="T10" s="42" t="s">
+      <c r="R10" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="S10" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="T10" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="U10" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="V10" s="42" t="s">
+      <c r="U10" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="V10" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="W10" s="42" t="s">
+      <c r="W10" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="X10" s="42" t="s">
+      <c r="X10" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="Y10" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z10" s="43" t="s">
+      <c r="Y10" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z10" s="29" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="11" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="C11" s="42" t="s">
+      <c r="C11" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="D11" s="42" t="s">
+      <c r="D11" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="E11" s="42" t="s">
+      <c r="E11" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="F11" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="G11" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="H11" s="42" t="s">
+      <c r="F11" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="H11" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="I11" s="42" t="s">
+      <c r="I11" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="J11" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="K11" s="44">
+      <c r="J11" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="K11" s="30">
         <v>45495.587199074071</v>
       </c>
-      <c r="L11" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="M11" s="42" t="s">
+      <c r="L11" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="M11" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="N11" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="O11" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="P11" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q11" s="42" t="s">
+      <c r="N11" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="O11" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="P11" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q11" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="R11" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="S11" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="T11" s="42" t="s">
+      <c r="R11" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="S11" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="T11" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="U11" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="V11" s="42" t="s">
+      <c r="U11" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="V11" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="W11" s="42" t="s">
+      <c r="W11" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="X11" s="42" t="s">
+      <c r="X11" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="Y11" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z11" s="43" t="s">
+      <c r="Y11" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z11" s="29" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="C12" s="42" t="s">
+      <c r="C12" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="D12" s="42" t="s">
+      <c r="D12" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="E12" s="42" t="s">
+      <c r="E12" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="F12" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="G12" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="H12" s="42" t="s">
+      <c r="F12" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="G12" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="H12" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="I12" s="42" t="s">
+      <c r="I12" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="J12" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="K12" s="44">
+      <c r="J12" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="K12" s="30">
         <v>45495.589328703703</v>
       </c>
-      <c r="L12" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="M12" s="42" t="s">
+      <c r="L12" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="M12" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="N12" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="O12" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="P12" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q12" s="42" t="s">
+      <c r="N12" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="O12" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="P12" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q12" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="R12" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="S12" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="T12" s="42" t="s">
+      <c r="R12" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="S12" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="T12" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="U12" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="V12" s="42" t="s">
+      <c r="U12" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="V12" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="W12" s="42" t="s">
+      <c r="W12" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="X12" s="42" t="s">
+      <c r="X12" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="Y12" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z12" s="43" t="s">
+      <c r="Y12" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z12" s="29" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="32" t="s">
         <v>147</v>
       </c>
-      <c r="C13" s="42" t="s">
+      <c r="C13" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="D13" s="42" t="s">
+      <c r="D13" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="E13" s="42" t="s">
+      <c r="E13" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="F13" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="G13" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="H13" s="42" t="s">
+      <c r="F13" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="G13" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="H13" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="I13" s="42" t="s">
+      <c r="I13" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="J13" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="K13" s="44">
+      <c r="J13" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="K13" s="30">
         <v>45540.445405092592</v>
       </c>
-      <c r="L13" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="M13" s="42" t="s">
+      <c r="L13" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="M13" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="N13" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="O13" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="P13" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q13" s="46" t="s">
+      <c r="N13" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="O13" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="P13" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q13" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="R13" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="S13" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="T13" s="42" t="s">
+      <c r="R13" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="S13" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="T13" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="U13" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="V13" s="42" t="s">
+      <c r="U13" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="V13" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="W13" s="42" t="s">
+      <c r="W13" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="X13" s="42" t="s">
+      <c r="X13" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="Y13" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z13" s="43" t="s">
+      <c r="Y13" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z13" s="29" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="14" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="B14" s="46" t="s">
+      <c r="B14" s="32" t="s">
         <v>150</v>
       </c>
-      <c r="C14" s="42" t="s">
+      <c r="C14" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="D14" s="42" t="s">
+      <c r="D14" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="E14" s="42" t="s">
+      <c r="E14" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="F14" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="G14" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="H14" s="42" t="s">
+      <c r="F14" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="G14" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="H14" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="I14" s="42" t="s">
+      <c r="I14" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="J14" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="K14" s="44">
+      <c r="J14" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="K14" s="30">
         <v>45540.445844907408</v>
       </c>
-      <c r="L14" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="M14" s="42" t="s">
+      <c r="L14" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="M14" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="N14" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="O14" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="P14" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q14" s="46" t="s">
+      <c r="N14" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="O14" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="P14" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q14" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="R14" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="S14" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="T14" s="42" t="s">
+      <c r="R14" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="S14" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="T14" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="U14" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="V14" s="42" t="s">
+      <c r="U14" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="V14" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="W14" s="42" t="s">
+      <c r="W14" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="X14" s="42" t="s">
+      <c r="X14" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="Y14" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z14" s="43" t="s">
+      <c r="Y14" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z14" s="29" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="15" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="B15" s="46" t="s">
+      <c r="B15" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="C15" s="42" t="s">
+      <c r="C15" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="D15" s="42" t="s">
+      <c r="D15" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="E15" s="42" t="s">
+      <c r="E15" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="F15" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="G15" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="H15" s="42" t="s">
+      <c r="F15" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="G15" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="H15" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="I15" s="42" t="s">
+      <c r="I15" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="J15" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="K15" s="44">
+      <c r="J15" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="K15" s="30">
         <v>45540.446388888886</v>
       </c>
-      <c r="L15" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="M15" s="42" t="s">
+      <c r="L15" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="M15" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="N15" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="O15" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="P15" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q15" s="46" t="s">
+      <c r="N15" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="O15" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="P15" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q15" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="R15" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="S15" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="T15" s="42" t="s">
+      <c r="R15" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="S15" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="T15" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="U15" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="V15" s="42" t="s">
+      <c r="U15" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="V15" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="W15" s="42" t="s">
+      <c r="W15" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="X15" s="42" t="s">
+      <c r="X15" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="Y15" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z15" s="43" t="s">
+      <c r="Y15" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z15" s="29" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="C16" s="42" t="s">
+      <c r="C16" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="D16" s="42" t="s">
+      <c r="D16" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="E16" s="42" t="s">
+      <c r="E16" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="F16" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="G16" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="H16" s="42" t="s">
+      <c r="F16" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="G16" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="H16" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="I16" s="42" t="s">
+      <c r="I16" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="J16" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="K16" s="44">
+      <c r="J16" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="K16" s="30">
         <v>45540.450439814813</v>
       </c>
-      <c r="L16" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="M16" s="42" t="s">
+      <c r="L16" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="M16" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="N16" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="O16" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="P16" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q16" s="42" t="s">
+      <c r="N16" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="O16" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="P16" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q16" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="R16" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="S16" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="T16" s="42" t="s">
+      <c r="R16" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="S16" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="T16" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="U16" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="V16" s="42" t="s">
+      <c r="U16" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="V16" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="W16" s="42" t="s">
+      <c r="W16" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="X16" s="42" t="s">
+      <c r="X16" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="Y16" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z16" s="43" t="s">
+      <c r="Y16" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z16" s="29" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="17" spans="2:30" x14ac:dyDescent="0.4">
-      <c r="B17" s="42" t="s">
+      <c r="B17" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="C17" s="42" t="s">
+      <c r="C17" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="D17" s="42" t="s">
+      <c r="D17" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="E17" s="42" t="s">
+      <c r="E17" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="F17" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="G17" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="H17" s="42" t="s">
+      <c r="F17" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="G17" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="H17" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="I17" s="42" t="s">
+      <c r="I17" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="J17" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="K17" s="44">
+      <c r="J17" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="K17" s="30">
         <v>45540.454432870371</v>
       </c>
-      <c r="L17" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="M17" s="42" t="s">
+      <c r="L17" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="M17" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="N17" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="O17" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="P17" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q17" s="42" t="s">
+      <c r="N17" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="O17" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="P17" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q17" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="R17" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="S17" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="T17" s="42" t="s">
+      <c r="R17" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="S17" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="T17" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="U17" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="V17" s="42" t="s">
+      <c r="U17" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="V17" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="W17" s="42" t="s">
+      <c r="W17" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="X17" s="42" t="s">
+      <c r="X17" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="Y17" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z17" s="43" t="s">
+      <c r="Y17" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z17" s="29" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="18" spans="2:30" x14ac:dyDescent="0.4">
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="C18" s="42" t="s">
+      <c r="C18" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="D18" s="42" t="s">
+      <c r="D18" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="E18" s="42" t="s">
+      <c r="E18" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="F18" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="G18" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="H18" s="42" t="s">
+      <c r="F18" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="G18" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="H18" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="I18" s="42" t="s">
+      <c r="I18" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="J18" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="K18" s="44">
+      <c r="J18" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="K18" s="30">
         <v>45559.628321759257</v>
       </c>
-      <c r="L18" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="M18" s="42" t="s">
+      <c r="L18" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="M18" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="N18" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="O18" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="P18" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q18" s="47" t="s">
+      <c r="N18" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="O18" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="P18" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q18" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="R18" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="S18" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="T18" s="42" t="s">
+      <c r="R18" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="S18" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="T18" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="U18" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="V18" s="42" t="s">
+      <c r="U18" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="V18" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="W18" s="42" t="s">
+      <c r="W18" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="X18" s="42" t="s">
+      <c r="X18" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="Y18" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z18" s="43" t="s">
+      <c r="Y18" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z18" s="29" t="s">
         <v>114</v>
       </c>
     </row>
@@ -10375,6 +10504,29 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B534ABDD-8074-421A-A964-986FFCCDFCA1}">
+  <dimension ref="B2:AD2"/>
+  <sheetViews>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="2" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="B2" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD2" s="25" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AE03260-E8EA-4C79-B732-59B663B8B1AB}">
   <dimension ref="B2:AD2"/>
   <sheetViews>
@@ -10397,7 +10549,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E885683-850F-48B9-B675-6D46FBCEEA35}">
   <dimension ref="B2:AD2"/>
   <sheetViews>
@@ -10421,26 +10573,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e8618445-b921-4c48-afdf-14e883213c59">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100B932A2821493BB4AB71A0C79347FD678" ma:contentTypeVersion="13" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="528594b33024f52b27c0b5dcdc9dfa0b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d" xmlns:ns3="e8618445-b921-4c48-afdf-14e883213c59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="25e4712d85e376121aa3366c94b400a9" ns2:_="" ns3:_="">
     <xsd:import namespace="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d"/>
@@ -10663,26 +10795,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B32E28B-C846-49C6-BEC1-CFA8F8DC97F9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e8618445-b921-4c48-afdf-14e883213c59"/>
-    <ds:schemaRef ds:uri="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e8618445-b921-4c48-afdf-14e883213c59">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{256F5120-266C-40C0-AA81-FCA7161B4644}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{00BA9BEF-9FC1-4455-9BC8-4A219529FD7E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10699,4 +10832,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B32E28B-C846-49C6-BEC1-CFA8F8DC97F9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e8618445-b921-4c48-afdf-14e883213c59"/>
+    <ds:schemaRef ds:uri="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{256F5120-266C-40C0-AA81-FCA7161B4644}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>